--- a/testing_results/inference_time_tai30x15.xlsx
+++ b/testing_results/inference_time_tai30x15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.419523477554321</v>
+        <v>5.552701807022094</v>
       </c>
       <c r="B2" t="n">
-        <v>5.365895652770996</v>
+        <v>5.360727739334107</v>
       </c>
       <c r="C2" t="n">
-        <v>5.39984278678894</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.393598961830139</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.3769784450531</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.39538164138794</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.374315476417541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.325609970092773</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.453874659538269</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.400830459594727</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.398028993606568</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.37029447555542</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5.263832139968872</v>
-      </c>
-      <c r="N2" t="n">
-        <v>77.7067616224289</v>
+        <v>79.58821260929108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.73754863739014</v>
+        <v>11.32455141544342</v>
       </c>
       <c r="B3" t="n">
-        <v>10.63204305171967</v>
+        <v>11.09636116027832</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7329859495163</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.73130230903626</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.70297331809997</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.71260087490082</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.67504518032074</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.51463780403137</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.45968315601349</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.42442071437836</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10.33344435691833</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10.48191895484924</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10.57523164749145</v>
-      </c>
-      <c r="N3" t="n">
-        <v>151.9234305858612</v>
+        <v>158.7413143634796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21.48210592269897</v>
+        <v>22.14360172748566</v>
       </c>
       <c r="B4" t="n">
-        <v>21.29554994106293</v>
+        <v>21.59114601612091</v>
       </c>
       <c r="C4" t="n">
-        <v>21.62026364803314</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.42637877464295</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21.38992276191711</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21.39700689315796</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21.41738605499268</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21.86698305606842</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22.30064380168915</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21.96865546703339</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.05332930088043</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21.89493877887726</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21.84272515773773</v>
-      </c>
-      <c r="N4" t="n">
-        <v>311.4611288309097</v>
+        <v>309.7136940956116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55.48158712387085</v>
+      </c>
+      <c r="B5" t="n">
+        <v>54.32213664054871</v>
+      </c>
+      <c r="C5" t="n">
+        <v>760.9993691444397</v>
       </c>
     </row>
   </sheetData>
